--- a/korbinian/settings/korbinian_DOWNLOAD_run_settings_TMD_server.xlsx
+++ b/korbinian/settings/korbinian_DOWNLOAD_run_settings_TMD_server.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="3090" yWindow="2955" windowWidth="14265" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="run_settings" sheetId="1" r:id="rId1"/>
     <sheet name="file_locations" sheetId="3" r:id="rId2"/>
     <sheet name="variables" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="219">
   <si>
     <t>uniprot_list</t>
   </si>
@@ -297,9 +297,6 @@
     <t>mp_smallest_bin</t>
   </si>
   <si>
-    <t>UniProt run settings</t>
-  </si>
-  <si>
     <t>SIMAP run settings</t>
   </si>
   <si>
@@ -387,33 +384,18 @@
     <t>mp_xlim_max01</t>
   </si>
   <si>
-    <t>fa_words_not_allowed_in_description</t>
-  </si>
-  <si>
     <t>fa_database</t>
   </si>
   <si>
     <t>fa_identity_method</t>
   </si>
   <si>
-    <t>fa_aa_before_tmd</t>
-  </si>
-  <si>
-    <t>fa_aa_after_tmd</t>
-  </si>
-  <si>
     <t>fa_X_allowed_in_sel_seq</t>
   </si>
   <si>
-    <t>cr_words_not_allowed_in_description</t>
-  </si>
-  <si>
     <t>cr_database</t>
   </si>
   <si>
-    <t>cr_minimum_identity_of_full_protein</t>
-  </si>
-  <si>
     <t>cr_min_identity_of_TMD_initial_filter</t>
   </si>
   <si>
@@ -540,6 +522,132 @@
     <t>slice_juxtamembrane_regions</t>
   </si>
   <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>add_user_subseqs</t>
+  </si>
+  <si>
+    <t>If "TRUE", user-based TMD or subsequences will be added from an external file (e.g. List12_SE_seqs).</t>
+  </si>
+  <si>
+    <t>OMPdb_extract_omp_IDs_from_nr_fasta</t>
+  </si>
+  <si>
+    <t>OMPdb_parse_OMPdb_all_selected_to_csv</t>
+  </si>
+  <si>
+    <t>OMPdb_get_omp_TM_indices_and_slice_from_summary_table</t>
+  </si>
+  <si>
+    <t>omp_nr_fasta</t>
+  </si>
+  <si>
+    <t>OMPdb_all_flatfile</t>
+  </si>
+  <si>
+    <t>OMPdb_summary_nr_csv</t>
+  </si>
+  <si>
+    <t>D:\Databases\OMPdb\20160819_OMPdb.30</t>
+  </si>
+  <si>
+    <t>omp_ID_nr_txt</t>
+  </si>
+  <si>
+    <t>omp_nr_fasta + "_IDS.txt"</t>
+  </si>
+  <si>
+    <t>r"D:\Databases\OMPdb\20160819_OMPdb.flat"</t>
+  </si>
+  <si>
+    <t>D:\Databases\OMPdb\rimma_orig\OMPdb_Selected_by_potential_IDs.csv</t>
+  </si>
+  <si>
+    <t>OMPdb_summary_csv_with_TM_seqs</t>
+  </si>
+  <si>
+    <t>e.g. D:\Databases\main\summaries\List05_summary.csv, final output CSV file that will be treated like a uniprot summary file for the rest of the korbinian scripts</t>
+  </si>
+  <si>
+    <t>Protein list settings (UniProt/OMPdb)</t>
+  </si>
+  <si>
+    <t>Protein list (UniProt) settings</t>
+  </si>
+  <si>
+    <t>Protein list (OMPdb) settings [for outer membrane protein analysis]</t>
+  </si>
+  <si>
+    <t>attempt_prev_failed_downloads</t>
+  </si>
+  <si>
+    <t>If true, the list of failed downloads (e.g. "D:\Databases\main\summaries\05\List05_failed_downloads.txt") will be ignored, and download will be attempted anyway.</t>
+  </si>
+  <si>
+    <t>slice_TMDs_from_homologues</t>
+  </si>
+  <si>
+    <t>If "TRUE", the homologues for each TMD will be sliced out of the query, match and markup sequences from the SIMAP data. This is necessary for both the create_fasta or calculate_AAIMON_ratios.</t>
+  </si>
+  <si>
+    <t>use_multiprocessing</t>
+  </si>
+  <si>
+    <t>If "TRUE", logging will be disabled, and the python multiprocessing module will be used. This allows processing of each protein in the list in parallel, and in most cases will be faster.</t>
+  </si>
+  <si>
+    <t>Multiprocessing and logging settings</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>logging_level_console</t>
+  </si>
+  <si>
+    <t>logging_level_logfile</t>
+  </si>
+  <si>
+    <t>DEBUG, WARNING or CRITICAL. Determines which messages are printed to the console.See python logging module for details. DEBUG is default: all logging.info("message") messages will be printed. If multiprocessing is used, logging will probably be disabled (set to CRITICAL).</t>
+  </si>
+  <si>
+    <t>DEBUG, WARNING or CRITICAL. Determines which messages are printed to the logfile. See python logging module for details. DEBUG is default: all logging.info("message") messages will be printed. If multiprocessing is used, logging will probably be disabled (set to CRITICAL).</t>
+  </si>
+  <si>
+    <t>words_not_allowed_in_description</t>
+  </si>
+  <si>
+    <t>n_aa_before_tmd</t>
+  </si>
+  <si>
+    <t>n_aa_after_tmd</t>
+  </si>
+  <si>
+    <t>Number of amino acids before the TMD, for slicing "TMD_plus_surr" sequence.</t>
+  </si>
+  <si>
+    <t>Number of amino acids after the TMD, for slicing "TMD_plus_surr" sequence.</t>
+  </si>
+  <si>
+    <t>homologue parsing and slicing settings</t>
+  </si>
+  <si>
+    <t>cr_min_identity_of_full_protein</t>
+  </si>
+  <si>
+    <t>cr_max_identity_of_full_protein</t>
+  </si>
+  <si>
+    <t>/nas</t>
+  </si>
+  <si>
+    <t>/nas/teeselab/mark/databases</t>
+  </si>
+  <si>
+    <t>/nas/teeselab/mark/files/main</t>
+  </si>
+  <si>
     <t>/nas/teeselab/programs/eaSimap.jar</t>
   </si>
   <si>
@@ -555,43 +663,22 @@
     <t>/nas/teeselab/mark/databases/homol</t>
   </si>
   <si>
-    <t>/nas/teeselab/mark/files/main</t>
-  </si>
-  <si>
-    <t>/nas/teeselab/mark/databases</t>
-  </si>
-  <si>
-    <t>/nas</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>insert\path\to\List01_uniprot_accessions.txt</t>
-  </si>
-  <si>
-    <t>Mark Teese</t>
-  </si>
-  <si>
-    <t>/nas/teeselab/mark/databases/D_uniprot</t>
-  </si>
-  <si>
-    <t>add_user_subseqs</t>
-  </si>
-  <si>
-    <t>If "TRUE", user-based TMD or subsequences will be added from an external file (e.g. List12_SE_seqs).</t>
-  </si>
-  <si>
-    <t>overwrite_fasta_seqs</t>
-  </si>
-  <si>
-    <t>do you want existing fasta.zip files to be overwritten, or the program to skip all proteins that already have a fasta output?</t>
+    <t>/nas/teeselab/mark/databases/D_uniprot/</t>
+  </si>
+  <si>
+    <t>path\to\List01_uniprot_accessions.txt</t>
+  </si>
+  <si>
+    <t>D:\Databases\main\summaries\List05_summary.csv</t>
+  </si>
+  <si>
+    <t>Mark Teese TMD Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,7 +704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +843,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -769,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -935,9 +1034,23 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1107,9 +1220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1147,9 +1260,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,26 +1295,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1234,26 +1330,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1427,23 +1506,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>59</v>
@@ -1454,7 +1533,7 @@
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="53"/>
@@ -1464,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="37">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>9</v>
@@ -1496,356 +1575,427 @@
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="C11" s="62"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="55"/>
+    </row>
+    <row r="13" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="56"/>
+    </row>
+    <row r="14" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="68"/>
+    </row>
+    <row r="15" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="C21" s="62"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="55"/>
-    </row>
-    <row r="8" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="57"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B23" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="C25" s="62"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="59"/>
+    </row>
+    <row r="27" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="C14" s="62"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="57"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="C28" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="C18" s="62"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="B29" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="62"/>
+    </row>
+    <row r="32" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="59"/>
-    </row>
-    <row r="20" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="62"/>
-    </row>
-    <row r="24" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="B33" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+      <c r="C36" s="62"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="60"/>
-    </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="27"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="C28" s="62"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="27"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="B38" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="29" t="s">
+      <c r="B39" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="29" t="s">
+      <c r="B40" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="B42" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="29" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B36:B1048576">
-    <cfRule type="containsText" dxfId="20" priority="129" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="B1 B6 B44:B1048576">
+    <cfRule type="containsText" dxfId="20" priority="229" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="19" priority="127" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="19" priority="227" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="containsText" dxfId="18" priority="226" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="17" priority="225" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="16" priority="224" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B43 B33 B35 B16:B17">
+    <cfRule type="containsText" dxfId="15" priority="223" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="14" priority="213" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="13" priority="156" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="18" priority="126" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="12" priority="147" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="containsText" dxfId="17" priority="125" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B23)))</formula>
+  <conditionalFormatting sqref="B13:B15">
+    <cfRule type="containsText" dxfId="11" priority="63" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="16" priority="124" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B35 B25 B27 B8:B9">
-    <cfRule type="containsText" dxfId="15" priority="123" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B8)))</formula>
+  <conditionalFormatting sqref="B23:B24 B19:B20">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="14" priority="113" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="13" priority="56" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="12" priority="47" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",B13)))</formula>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,22 +2005,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="61.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>59</v>
@@ -1881,13 +2031,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,7 +2061,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,7 +2069,7 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -1930,7 +2080,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -1938,62 +2088,135 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="55"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="55"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>178</v>
       </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2003,13 +2226,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="31" style="47" customWidth="1"/>
@@ -2018,7 +2241,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>59</v>
@@ -2089,8 +2312,8 @@
       <c r="A9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="40" t="b">
-        <v>0</v>
+      <c r="B9" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="56"/>
     </row>
@@ -2098,8 +2321,8 @@
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="40" t="b">
-        <v>0</v>
+      <c r="B10" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="56"/>
     </row>
@@ -2116,8 +2339,8 @@
       <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="40" t="b">
-        <v>0</v>
+      <c r="B12" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="56"/>
     </row>
@@ -2126,7 +2349,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="40">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>61</v>
@@ -2155,7 +2378,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="40">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C16" s="56"/>
     </row>
@@ -2170,245 +2393,242 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="56"/>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="57"/>
+      <c r="C19" s="56"/>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="42" t="b">
+      <c r="A21" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>162</v>
-      </c>
+      <c r="C22" s="82"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>163</v>
-      </c>
+      <c r="A23" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="82"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>151</v>
+      <c r="A24" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="81">
+        <v>10</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="58"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="42">
-        <v>12</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>156</v>
-      </c>
+      <c r="A25" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="81">
+        <v>10</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="42">
-        <v>4</v>
-      </c>
-      <c r="C27" s="58"/>
+      <c r="A27" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="57"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="42">
-        <v>4</v>
-      </c>
-      <c r="C28" s="58"/>
+        <v>143</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="42">
-        <v>0.4</v>
+        <v>144</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="42">
-        <v>1</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>161</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="58"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="B32" s="42">
+        <v>12</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>8</v>
+        <v>140</v>
+      </c>
+      <c r="B33" s="42">
+        <v>4</v>
       </c>
       <c r="C33" s="58"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B34" s="42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="42">
-        <v>10</v>
-      </c>
-      <c r="C35" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="58"/>
+        <v>137</v>
+      </c>
+      <c r="B36" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="42">
+        <v>1</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="58"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B39" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="58"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="75" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="76"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="76"/>
+      <c r="C40" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="38"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="76"/>
+      <c r="A42" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="75">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>33</v>
       </c>
       <c r="C43" s="76"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="74" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B44" s="75">
         <v>2</v>
@@ -2417,439 +2637,457 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="74" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B45" s="75">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="76"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B46" s="75">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C46" s="76"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B47" s="75">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C47" s="76"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="75" t="s">
-        <v>8</v>
+        <v>126</v>
+      </c>
+      <c r="B48" s="75">
+        <v>0.3</v>
       </c>
       <c r="C48" s="76"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B49" s="75">
-        <v>20</v>
+        <v>0.3</v>
       </c>
       <c r="C49" s="76"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C50" s="76"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B51" s="75">
-        <v>1.1000000000000001</v>
+        <v>20</v>
       </c>
       <c r="C51" s="76"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="75">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="C52" s="76"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B53" s="75">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C53" s="76"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="75" t="s">
-        <v>8</v>
+        <v>132</v>
+      </c>
+      <c r="B54" s="75">
+        <v>0</v>
       </c>
       <c r="C54" s="76"/>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="38"/>
-      <c r="C55" s="8"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="75">
+        <v>0</v>
+      </c>
+      <c r="C55" s="76"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="76"/>
+    </row>
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="38"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="59"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="25"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="44">
-        <v>2</v>
-      </c>
-      <c r="C58" s="25"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="59"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="44">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>7</v>
       </c>
       <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="44">
+        <v>2</v>
+      </c>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="44">
+        <v>24</v>
+      </c>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B62" s="44">
         <v>20</v>
       </c>
-      <c r="C60" s="25"/>
-    </row>
-    <row r="61" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="38"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="38"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="60"/>
-    </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="46">
-        <v>30</v>
-      </c>
-      <c r="C63" s="61"/>
-    </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="61"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="60"/>
     </row>
     <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B65" s="46">
-        <v>3.05</v>
+        <v>30</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="46">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="46">
-        <v>31</v>
+        <v>3.05</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="46" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="B68" s="46">
+        <v>20</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="46" t="s">
-        <v>8</v>
+        <v>83</v>
+      </c>
+      <c r="B69" s="46">
+        <v>31</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="46">
-        <v>0.05</v>
+        <v>84</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="46">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>8</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>7</v>
+        <v>86</v>
+      </c>
+      <c r="B72" s="46">
+        <v>0.05</v>
       </c>
       <c r="C72" s="61"/>
     </row>
     <row r="73" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" s="46">
-        <v>1.4550000000000001</v>
+        <v>3</v>
       </c>
       <c r="C73" s="61"/>
     </row>
     <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="61"/>
+    </row>
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="46">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="C75" s="61"/>
+    </row>
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="46">
+      <c r="B76" s="46">
         <v>31</v>
-      </c>
-      <c r="C74" s="61"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="61"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="46">
-        <v>0.55500000000000005</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="46">
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>8</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B78" s="46">
-        <v>1.75</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="C79" s="61"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="C80" s="61"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B81" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="61"/>
-    </row>
-    <row r="81" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="C81" s="61"/>
+    </row>
+    <row r="83" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="27"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="49">
-        <v>0</v>
-      </c>
-      <c r="C82" s="29"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="49">
-        <v>-12</v>
-      </c>
-      <c r="C83" s="29"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="27"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B84" s="49">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C84" s="29"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="49" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B85" s="49">
+        <v>-12</v>
       </c>
       <c r="C85" s="29"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" s="49">
-        <v>-0.2</v>
+        <v>-2</v>
       </c>
       <c r="C86" s="29"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="49">
-        <v>-1</v>
+        <v>42</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="C87" s="29"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B88" s="49">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="C88" s="29"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B89" s="49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C89" s="29"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="49">
+        <v>-1</v>
+      </c>
+      <c r="C90" s="29"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="49">
+        <v>0</v>
+      </c>
+      <c r="C91" s="29"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="29"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="C92" s="29"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="50"/>
-      <c r="C92" s="30"/>
-    </row>
-    <row r="93" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="B94" s="50"/>
+      <c r="C94" s="30"/>
+    </row>
+    <row r="95" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="33"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" s="51">
-        <v>5</v>
-      </c>
-      <c r="C94" s="33"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="B95" s="51" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C95" s="33"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="51">
+        <v>5</v>
+      </c>
+      <c r="C96" s="33"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="33"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C96" s="51"/>
+      <c r="C98" s="51"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
